--- a/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
+++ b/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\git\repository3\DieticianAPI_RestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB93FF-1D33-4E01-9A37-04DB355C06B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C0780-6660-419B-BCEA-8ADCFED0E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>header</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Post_Patient_Missing_LastName</t>
   </si>
   <si>
-    <t>Post_Patient_Missing_Email</t>
-  </si>
-  <si>
     <t>Post_Patient_Missing_ContactNumber</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Peanuts</t>
   </si>
   <si>
-    <t>Walnut</t>
-  </si>
-  <si>
     <t>Pistachio</t>
   </si>
   <si>
@@ -126,20 +120,58 @@
     <t>Paleo</t>
   </si>
   <si>
-    <t>morbidityfile</t>
-  </si>
-  <si>
-    <t>MorbidityFile</t>
-  </si>
-  <si>
     <t>Post_Patient_Missing_File</t>
+  </si>
+  <si>
+    <t>Patient already exists
+ with given DateOfBirth 
+and ContactNumber</t>
+  </si>
+  <si>
+    <t>DUPLICATE_ENTITY</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>INVALID_REQ_DATA</t>
+  </si>
+  <si>
+    <t>Invalid food catgory: 
+Must be one of the categories in
+ {VEGAN, VEGETARIAN, JAIN,
+ EGGETARIAN, NONVEG}\n</t>
+  </si>
+  <si>
+    <t>User First Name is Mandatory!\n</t>
+  </si>
+  <si>
+    <t>User Last Name is Mandatory!\n</t>
+  </si>
+  <si>
+    <t>Invalid Email Id!\n</t>
+  </si>
+  <si>
+    <t>Post_Patient_Invalid_Email</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>Contact number should contain 10 digits\n</t>
+  </si>
+  <si>
+    <t>Date of Birth is Mandatory!\n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,18 +180,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000C0"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,20 +203,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7FD85-AA17-4E08-915D-C86A2B54A072}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,50 +542,54 @@
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="10" max="10" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>9897876560</v>
@@ -572,27 +598,24 @@
         <v>38603</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3">
         <v>9897876560</v>
@@ -601,27 +624,30 @@
         <v>38603</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>9897876560</v>
@@ -630,24 +656,27 @@
         <v>38605</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5">
         <v>9897876560</v>
@@ -656,24 +685,27 @@
         <v>38606</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>9897876560</v>
@@ -682,105 +714,120 @@
         <v>38607</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="D7" t="s">
+        <v>42</v>
       </c>
       <c r="E7">
         <v>9897876560</v>
       </c>
       <c r="F7" s="1">
-        <v>38608</v>
+        <v>38609</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>38610</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>38609</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
       <c r="E9">
         <v>9897876560</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
       <c r="E10">
         <v>7876786784</v>
@@ -789,18 +836,13 @@
         <v>38605</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{A3400CB8-C286-4C32-8237-B3265BA24203}"/>
-    <hyperlink ref="I4:I9" r:id="rId2" display="morbidityfile" xr:uid="{8AB5BD8C-4B77-4149-8B0D-0DC1A216A153}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{BC50C55D-71B8-479B-B39E-0F84630BBEEA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
+++ b/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\git\repository3\DieticianAPI_RestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C0780-6660-419B-BCEA-8ADCFED0E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F86950-1108-41D5-A891-82348237B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>header</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Allergy</t>
   </si>
   <si>
-    <t>Food Category</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>martin_duncan@abc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg  </t>
   </si>
   <si>
     <t>Milk</t>
@@ -165,6 +160,9 @@
   </si>
   <si>
     <t>Date of Birth is Mandatory!\n</t>
+  </si>
+  <si>
+    <t>FoodCategory</t>
   </si>
 </sst>
 </file>
@@ -530,7 +528,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>9897876560</v>
+        <v>4567895674</v>
       </c>
       <c r="F2" s="1">
         <v>38603</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,31 +607,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3">
-        <v>9897876560</v>
+        <v>4567895674</v>
       </c>
       <c r="F3" s="1">
         <v>38603</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>9897876560</v>
@@ -656,16 +654,16 @@
         <v>38605</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -673,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>9897876560</v>
@@ -685,16 +683,16 @@
         <v>38606</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -702,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>9897876560</v>
@@ -714,30 +712,30 @@
         <v>38607</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>9897876560</v>
@@ -746,16 +744,16 @@
         <v>38609</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -763,28 +761,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>38610</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -792,42 +790,42 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9">
         <v>9897876560</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
       </c>
       <c r="E10">
         <v>7876786784</v>
@@ -836,13 +834,25 @@
         <v>38605</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9953D30-98C9-47E4-85B4-9A384088F2EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
+++ b/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\git\repository3\DieticianAPI_RestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F86950-1108-41D5-A891-82348237B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF01B00-5916-4269-AC08-B7705A3DFF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
+    <workbookView xWindow="5370" yWindow="2535" windowWidth="15375" windowHeight="7785" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>header</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>Allergy</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>martin_duncan@abc.com</t>
   </si>
   <si>
     <t>Milk</t>
@@ -163,6 +154,15 @@
   </si>
   <si>
     <t>FoodCategory</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>john_mark@yyy.com</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>6566666666</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38963</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>4567895674</v>
-      </c>
-      <c r="F2" s="1">
-        <v>38603</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,31 +607,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>6566666666</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38963</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>4567895674</v>
-      </c>
-      <c r="F3" s="1">
-        <v>38603</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,60 +639,63 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>9897876560</v>
       </c>
       <c r="F4" s="1">
-        <v>38605</v>
+        <v>38965</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>9897876560</v>
       </c>
       <c r="F5" s="1">
-        <v>38606</v>
+        <v>38966</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -700,60 +703,63 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>9897876560</v>
       </c>
       <c r="F6" s="1">
-        <v>38607</v>
+        <v>38967</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>9897876560</v>
       </c>
       <c r="F7" s="1">
-        <v>38609</v>
+        <v>38968</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -761,28 +767,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>38610</v>
+        <v>38969</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -790,54 +796,55 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>9897876560</v>
       </c>
+      <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>7876786784</v>
       </c>
       <c r="F10" s="1">
-        <v>38605</v>
+        <v>38971</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
+++ b/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\git\repository3\DieticianAPI_RestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF01B00-5916-4269-AC08-B7705A3DFF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882282CD-8728-4C41-864A-6CC1DA5A483C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2535" windowWidth="15375" windowHeight="7785" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>header</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Post_Patient_Missing_LastName</t>
-  </si>
-  <si>
-    <t>Post_Patient_Missing_ContactNumber</t>
   </si>
   <si>
     <t>Post_Patient_Missing_DateOfBirth</t>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>john_mark@yyy.com</t>
+  </si>
+  <si>
+    <t>Post_Patient_Invalid_ContactNumber</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7FD85-AA17-4E08-915D-C86A2B54A072}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,31 +549,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="E2">
         <v>6566666666</v>
@@ -596,10 +596,10 @@
         <v>38963</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="E3">
         <v>6566666666</v>
@@ -622,16 +622,16 @@
         <v>38963</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
       <c r="E4">
         <v>9897876560</v>
@@ -654,30 +654,27 @@
         <v>38965</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
       <c r="E5">
         <v>9897876560</v>
@@ -686,16 +683,16 @@
         <v>38966</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -703,13 +700,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
       <c r="E6">
         <v>9897876560</v>
@@ -718,30 +712,30 @@
         <v>38967</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="E7">
         <v>9897876560</v>
@@ -750,89 +744,92 @@
         <v>38968</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
+      <c r="E8">
+        <v>5666</v>
       </c>
       <c r="F8" s="1">
         <v>38969</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
       </c>
       <c r="E9">
         <v>9897876560</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
       </c>
       <c r="E10">
         <v>7876786784</v>
@@ -841,10 +838,10 @@
         <v>38971</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
+++ b/DieticianAPI_RestAssured/src/test/resources/data/dietician.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\git\repository3\DieticianAPI_RestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882282CD-8728-4C41-864A-6CC1DA5A483C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8F03E-4F79-4D4B-83FD-F9413B58983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{033B146A-CBE0-4E54-A2FD-6F52EA9DC257}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="put" sheetId="2" r:id="rId2"/>
+    <sheet name="Morbidity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>header</t>
   </si>
@@ -163,13 +164,70 @@
   </si>
   <si>
     <t>Post_Patient_Invalid_ContactNumber</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Put_Patient_Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Put_Patient_NonAcceptedFoodCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Put_Patient_Missing_FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Put_Patient_Missing_LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Put_Patient_Missing_ContactNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Put_Patient_Missing_DateOfBirth</t>
+  </si>
+  <si>
+    <t>Put_Patient_Invalid_Email</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Put_Patient_Invalid_Allergy</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>6666/55/55</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>MorbidityTestName</t>
+  </si>
+  <si>
+    <t>DataKey</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +240,18 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,13 +274,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7FD85-AA17-4E08-915D-C86A2B54A072}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +616,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
@@ -788,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -804,18 +882,14 @@
       <c r="E9">
         <v>9897876560</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,6 +916,17 @@
       </c>
       <c r="H10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>67</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -851,12 +936,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9953D30-98C9-47E4-85B4-9A384088F2EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>9897876560</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38965</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>6566666666</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38963</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>9897876560</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38965</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>9897876560</v>
+      </c>
+      <c r="F5" s="1">
+        <v>38966</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>9897876560</v>
+      </c>
+      <c r="F6" s="1">
+        <v>38967</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38968</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>5666</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>9897876560</v>
+      </c>
+      <c r="F9" s="1">
+        <v>38969</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2921D97-D6FE-4F59-86B8-D4E90FDD28EE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>